--- a/src/test/java/org/TestData/Book1.xlsx
+++ b/src/test/java/org/TestData/Book1.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -57,9 +57,6 @@
     <t>verify sign up link</t>
   </si>
   <si>
-    <t>locator</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -72,18 +69,6 @@
     <t>open browser</t>
   </si>
   <si>
-    <t>id=username</t>
-  </si>
-  <si>
-    <t>id=password</t>
-  </si>
-  <si>
-    <t>id=loginBtn</t>
-  </si>
-  <si>
-    <t>linkText=Sign up</t>
-  </si>
-  <si>
     <t>sendkeys</t>
   </si>
   <si>
@@ -106,6 +91,60 @@
   </si>
   <si>
     <t>enter url</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>locatorValue</t>
+  </si>
+  <si>
+    <t>locatorName</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>loginBtn</t>
+  </si>
+  <si>
+    <t>linkText</t>
+  </si>
+  <si>
+    <t>Sign up</t>
+  </si>
+  <si>
+    <t>verify home page header</t>
+  </si>
+  <si>
+    <t>get home page header text</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>isDisplayed</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>private-page_title</t>
+  </si>
+  <si>
+    <t>getText</t>
+  </si>
+  <si>
+    <t>Sales Dashboard</t>
+  </si>
+  <si>
+    <t>//h1[text()='Sales Dashboard']</t>
   </si>
 </sst>
 </file>
@@ -150,9 +189,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,193 +554,291 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D9" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>